--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\efms\src\WebAPI\eFMS.API.SystemWeb\CatalogueManagement\eFMS.API.Catalogue\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -30,78 +30,6 @@
     <author>Alex Phuong</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mã Service Salesman Default</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Nhập thông tin office của saleman default</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Payment Term Áp đụng</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -131,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Contact Person</t>
   </si>
@@ -145,9 +73,6 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t>Saleman</t>
-  </si>
-  <si>
     <t>Localtion (Workplace)</t>
   </si>
   <si>
@@ -205,18 +130,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Service - Salesman Default</t>
-  </si>
-  <si>
-    <t>Office - Salesman Default</t>
-  </si>
-  <si>
-    <t>Payment Term - Salesman Default</t>
-  </si>
-  <si>
-    <t>Effect Date -Salesman Default</t>
-  </si>
-  <si>
     <t>Prepaid</t>
   </si>
   <si>
@@ -266,12 +179,27 @@
   </si>
   <si>
     <t>ITLHCM</t>
+  </si>
+  <si>
+    <t>Salesman Default</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>A/C Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billing Phone</t>
+  </si>
+  <si>
+    <t>Billing Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -360,7 +288,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,188 +570,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16:Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="25.1796875" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" customWidth="1"/>
-    <col min="13" max="13" width="37.54296875" customWidth="1"/>
-    <col min="14" max="14" width="28.54296875" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" customWidth="1"/>
-    <col min="21" max="21" width="25.453125" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.7265625" customWidth="1"/>
-    <col min="27" max="27" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="37.5703125" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="25.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>43904</v>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -833,18 +756,12 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>AB2</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2</xm:sqref>
+          <xm:sqref>AB2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -860,65 +777,65 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,10 +27,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Alex Phuong</author>
+    <author>Luis Quang</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,18 +38,43 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Alex Phuong:</t>
+          <t>Luis Quang:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+8-14 characters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Luis Quang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Required when Partner Mode = Internal
 </t>
         </r>
       </text>
@@ -59,26 +84,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
-  <si>
-    <t>Contact Person</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Zipcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t>Localtion (Workplace)</t>
-  </si>
-  <si>
-    <t>Partners Bank Account</t>
-  </si>
-  <si>
     <t>Bank Name</t>
   </si>
   <si>
@@ -91,42 +101,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Name Abr(*)</t>
-  </si>
-  <si>
-    <t>Name EN(*)</t>
-  </si>
-  <si>
-    <t>Name Local(*)</t>
-  </si>
-  <si>
-    <t>Taxcode(*)</t>
-  </si>
-  <si>
-    <t>Category(*)</t>
-  </si>
-  <si>
-    <t>Billing  Address EN(*)</t>
-  </si>
-  <si>
-    <t>Billing Address Local(*)</t>
-  </si>
-  <si>
-    <t>Shipping Address Local(*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> City </t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Shipping  Address EN</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -166,60 +140,134 @@
     <t>Inland Trucking</t>
   </si>
   <si>
-    <t>3123123123 i1</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Bac Giang</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>ITLHCM</t>
-  </si>
-  <si>
-    <t>Salesman Default</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
     <t>A/C Reference</t>
   </si>
   <si>
-    <t xml:space="preserve"> Billing Phone</t>
-  </si>
-  <si>
     <t>Billing Email</t>
+  </si>
+  <si>
+    <t>Partner Location (*)</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Internal Reference</t>
+  </si>
+  <si>
+    <t>Partner Mode</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Internal Code</t>
+  </si>
+  <si>
+    <t>Airline Code/Co-Loader Code</t>
+  </si>
+  <si>
+    <t>Person Contact</t>
+  </si>
+  <si>
+    <t>Contact Phone Number</t>
+  </si>
+  <si>
+    <t>Fax No</t>
+  </si>
+  <si>
+    <t>Work Phone (Ext No)</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Billing Phone</t>
+  </si>
+  <si>
+    <t>Shipping Address EN (*)</t>
+  </si>
+  <si>
+    <t>Shipping Address Local (*)</t>
+  </si>
+  <si>
+    <t>Country (*)</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Billing Address EN (*)</t>
+  </si>
+  <si>
+    <t>Billing Address Local (*)</t>
+  </si>
+  <si>
+    <t>Name ABBR (*)</t>
+  </si>
+  <si>
+    <t>Name EN (*)</t>
+  </si>
+  <si>
+    <t>Name Local (*)</t>
+  </si>
+  <si>
+    <t>Taxcode (*)</t>
+  </si>
+  <si>
+    <t>Category (*)</t>
+  </si>
+  <si>
+    <t>Bank Account No</t>
+  </si>
+  <si>
+    <t>Round Up Method</t>
+  </si>
+  <si>
+    <t>Apply For Dim</t>
+  </si>
+  <si>
+    <t>Shipping Address EN</t>
+  </si>
+  <si>
+    <t>Shipping Address Local</t>
+  </si>
+  <si>
+    <t>Billing Address EN</t>
+  </si>
+  <si>
+    <t>Billing Address Local</t>
+  </si>
+  <si>
+    <t>Name ABBR</t>
+  </si>
+  <si>
+    <t>Name EN</t>
+  </si>
+  <si>
+    <t>Name Local</t>
+  </si>
+  <si>
+    <t>3123123123 i9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -229,20 +277,37 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -272,22 +337,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,204 +644,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16:Z17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="37.5703125" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23" customWidth="1"/>
-    <col min="23" max="23" width="25.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="37.5703125" customWidth="1"/>
+    <col min="18" max="18" width="28.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="23" max="28" width="15" customWidth="1"/>
+    <col min="29" max="31" width="22.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="AG1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>222</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Domestic,Oversea"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Internal,External"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+      <formula1>"Single Dim,Total Dim"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
+      <formula1>"Standard,Round 0.5, Round 1.0"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$D$2:$D$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>AB2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -774,68 +879,68 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Catalogue/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Zipcode</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Partner Mode</t>
   </si>
   <si>
-    <t>Internal</t>
-  </si>
-  <si>
     <t>Internal Code</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Apply For Dim</t>
   </si>
   <si>
-    <t>Shipping Address EN</t>
-  </si>
-  <si>
     <t>Shipping Address Local</t>
   </si>
   <si>
@@ -254,7 +248,13 @@
     <t>Name Local</t>
   </si>
   <si>
-    <t>3123123123 i9</t>
+    <t>Credit Payment</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
 </sst>
 </file>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
     <col min="5" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
@@ -677,21 +677,21 @@
     <col min="34" max="34" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
@@ -700,109 +700,112 @@
         <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
+      <c r="E2" s="1">
+        <v>659885474</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -813,29 +816,31 @@
         <v>222</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -854,7 +859,7 @@
       <c r="AI2" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Domestic,Oversea"</formula1>
     </dataValidation>
@@ -866,6 +871,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
       <formula1>"Standard,Round 0.5, Round 1.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"Credit,Direct"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,7 +887,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
